--- a/report_6000.xlsx
+++ b/report_6000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:AC77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,106 @@
           <t>SD EOD 1</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 4</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 4</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 4</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 5</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 5</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 5</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 5</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 6</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 6</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 6</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -503,6 +603,66 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
+      <c r="J2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -530,6 +690,66 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -561,6 +781,66 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
+      <c r="J4" t="n">
+        <v>881</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>881</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>881</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>881</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>881</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -590,6 +870,66 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -619,6 +959,66 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -646,6 +1046,66 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>612</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>612</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>612</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>612</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>612</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,19 +1114,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>252.2</v>
+        <v>372.2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7378521297665</v>
+        <v>372.2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -675,6 +1135,66 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -683,19 +1203,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>252.2</v>
+        <v>372.2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>362.7378521297665</v>
+        <v>372.2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -704,6 +1224,66 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,16 +1292,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>244</v>
@@ -733,6 +1313,66 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>244</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>244</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>244</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>244</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>244</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -741,16 +1381,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>243.5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>243.5</v>
@@ -762,6 +1402,66 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -770,28 +1470,88 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>149.8</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>149.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -799,16 +1559,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.4</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>144.4</v>
@@ -820,6 +1580,66 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -828,28 +1648,88 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>82</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>82</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>82</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>82</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -857,16 +1737,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>80</v>
@@ -878,6 +1758,66 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>80.00000000000003</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>80</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>80</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>80</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -886,28 +1826,88 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>47.9</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -915,28 +1915,88 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -967,6 +2027,66 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -996,6 +2116,66 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1025,6 +2205,66 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1054,6 +2294,66 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1083,6 +2383,66 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1112,6 +2472,66 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1141,6 +2561,66 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1170,6 +2650,66 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1199,6 +2739,66 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1228,6 +2828,66 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1257,6 +2917,66 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1286,6 +3006,66 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1315,6 +3095,66 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1344,6 +3184,66 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1373,13 +3273,73 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>11</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>693.8</v>
+        <v>664.7415060000005</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -1400,6 +3360,66 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,16 +3428,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>685.3</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F34" t="n">
         <v>685.3</v>
@@ -1429,6 +3449,66 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>685.3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>685.3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>685.3</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>685.3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,6 +3540,66 @@
       <c r="I35" t="n">
         <v>10</v>
       </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>11</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>11</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1472,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1488,6 +3628,66 @@
       </c>
       <c r="I36" t="n">
         <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>110.9599999999999</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>8</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>110.96</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>110.9599999999999</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1495,27 +3695,87 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>301.8888139999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>103.1000000000007</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>249.7482899999998</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>515.5</v>
       </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
         <v>515.5</v>
       </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>515.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1547,6 +3807,66 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
+      <c r="J38" t="n">
+        <v>508</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>508</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>508</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>508</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>508</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1576,6 +3896,66 @@
       <c r="I39" t="n">
         <v>0</v>
       </c>
+      <c r="J39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1605,25 +3985,85 @@
       <c r="I40" t="n">
         <v>5</v>
       </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>447.9</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>447.9</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>143.941505999999</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>186.6931097404678</v>
+        <v>54.17999999999995</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1632,6 +4072,66 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>54.17999999999995</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>270.9</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>270.4792559999996</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>270.9</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1663,6 +4163,66 @@
       <c r="I42" t="n">
         <v>4</v>
       </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1692,6 +4252,66 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
+      <c r="J43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1721,6 +4341,66 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
+      <c r="J44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1750,6 +4430,66 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
+      <c r="J45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1779,6 +4519,66 @@
       <c r="I46" t="n">
         <v>11</v>
       </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>48.9800000000604</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1808,6 +4608,66 @@
       <c r="I47" t="n">
         <v>5</v>
       </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1837,6 +4697,66 @@
       <c r="I48" t="n">
         <v>3</v>
       </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1866,6 +4786,66 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
+      <c r="J49" t="n">
+        <v>218.622688000001</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1895,6 +4875,66 @@
       <c r="I50" t="n">
         <v>4</v>
       </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>212.9391576791816</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1924,6 +4964,66 @@
       <c r="I51" t="n">
         <v>11</v>
       </c>
+      <c r="J51" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>11</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>30.94000000000074</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1953,6 +5053,66 @@
       <c r="I52" t="n">
         <v>5</v>
       </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>99.01670832081955</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1982,6 +5142,66 @@
       <c r="I53" t="n">
         <v>3</v>
       </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2011,6 +5231,66 @@
       <c r="I54" t="n">
         <v>3</v>
       </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2040,6 +5320,66 @@
       <c r="I55" t="n">
         <v>2</v>
       </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2069,6 +5409,66 @@
       <c r="I56" t="n">
         <v>2</v>
       </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2098,6 +5498,66 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2113,18 +5573,78 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>6</v>
       </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>7</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2133,16 +5653,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2154,6 +5674,66 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2185,6 +5765,66 @@
       <c r="I60" t="n">
         <v>0</v>
       </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2214,6 +5854,66 @@
       <c r="I61" t="n">
         <v>0</v>
       </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2243,6 +5943,66 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2272,6 +6032,66 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2301,6 +6121,66 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2330,6 +6210,66 @@
       <c r="I65" t="n">
         <v>0</v>
       </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2359,6 +6299,66 @@
       <c r="I66" t="n">
         <v>0</v>
       </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2388,6 +6388,66 @@
       <c r="I67" t="n">
         <v>0</v>
       </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2417,6 +6477,66 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2446,6 +6566,66 @@
       <c r="I69" t="n">
         <v>0</v>
       </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2475,6 +6655,66 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2504,6 +6744,66 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2533,6 +6833,66 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2562,6 +6922,66 @@
       <c r="I73" t="n">
         <v>0</v>
       </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2591,6 +7011,66 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2620,6 +7100,66 @@
       <c r="I75" t="n">
         <v>0</v>
       </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2649,6 +7189,66 @@
       <c r="I76" t="n">
         <v>0</v>
       </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2676,6 +7276,66 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="n">
         <v>0</v>
       </c>
     </row>
